--- a/DataSetExplorerTests/DataFactories/TestData/BurningKnight3.xlsx
+++ b/DataSetExplorerTests/DataFactories/TestData/BurningKnight3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSInput\BurningKnight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ccadet\platform\DataSetExplorerTests\DataFactories\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF4EA3-81B0-44E9-932F-E1ADFBC6BCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546589D8-385F-4821-9B1D-453746D9BA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Long Method Smell" sheetId="1" r:id="rId1"/>
-    <sheet name="Large Class Smell" sheetId="2" r:id="rId2"/>
+    <sheet name="Long Method" sheetId="1" r:id="rId1"/>
+    <sheet name="Large Class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1847,23 +1847,23 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1877,6 +1877,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFE06666"/>
           <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1925,22 +1933,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2170,21 +2162,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="67.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.765625" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="11.53515625" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" customWidth="1"/>
+    <col min="12" max="12" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>560</v>
       </c>
@@ -2197,48 +2189,48 @@
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="18" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2336,7 +2328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2405,7 +2397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2429,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -2453,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -2477,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2511,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -2569,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -2593,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -2620,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2644,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -2668,7 +2660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -2695,7 +2687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2719,7 +2711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2743,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -2767,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -2791,7 +2783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -2815,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -2839,7 +2831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2863,7 +2855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
@@ -2887,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -2911,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -2935,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -2959,7 +2951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -2983,7 +2975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -3010,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -3037,7 +3029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -3064,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -3088,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -3112,7 +3104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -3136,7 +3128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
@@ -3167,7 +3159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>68</v>
       </c>
@@ -3191,7 +3183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -3215,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -3239,7 +3231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
@@ -3263,7 +3255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
@@ -3293,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -3317,7 +3309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>76</v>
       </c>
@@ -3344,7 +3336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>78</v>
       </c>
@@ -3368,7 +3360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>79</v>
       </c>
@@ -3392,7 +3384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
@@ -3416,7 +3408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>81</v>
       </c>
@@ -3440,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>82</v>
       </c>
@@ -3464,7 +3456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>83</v>
       </c>
@@ -3488,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>84</v>
       </c>
@@ -3522,7 +3514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>88</v>
       </c>
@@ -3546,7 +3538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -3570,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
@@ -3594,7 +3586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>91</v>
       </c>
@@ -3618,7 +3610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
@@ -3642,7 +3634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3666,7 +3658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3690,7 +3682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
@@ -3714,7 +3706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>96</v>
       </c>
@@ -3748,7 +3740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -3772,7 +3764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>101</v>
       </c>
@@ -3796,7 +3788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>102</v>
       </c>
@@ -3820,7 +3812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>103</v>
       </c>
@@ -3850,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>106</v>
       </c>
@@ -3880,7 +3872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>108</v>
       </c>
@@ -3912,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>111</v>
       </c>
@@ -3948,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>115</v>
       </c>
@@ -3984,7 +3976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>120</v>
       </c>
@@ -4008,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>121</v>
       </c>
@@ -4032,7 +4024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>122</v>
       </c>
@@ -4056,7 +4048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +4072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>124</v>
       </c>
@@ -4104,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>125</v>
       </c>
@@ -4137,7 +4129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>129</v>
       </c>
@@ -4161,7 +4153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>130</v>
       </c>
@@ -4185,7 +4177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
@@ -4209,7 +4201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -4233,7 +4225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>133</v>
       </c>
@@ -4257,7 +4249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>134</v>
       </c>
@@ -4281,7 +4273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>135</v>
       </c>
@@ -4305,7 +4297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>136</v>
       </c>
@@ -4329,7 +4321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>137</v>
       </c>
@@ -4353,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>138</v>
       </c>
@@ -4377,7 +4369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>139</v>
       </c>
@@ -4401,7 +4393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>140</v>
       </c>
@@ -4437,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>145</v>
       </c>
@@ -4471,7 +4463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>148</v>
       </c>
@@ -4495,7 +4487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>149</v>
       </c>
@@ -4522,7 +4514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>151</v>
       </c>
@@ -4546,7 +4538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>152</v>
       </c>
@@ -4570,7 +4562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>153</v>
       </c>
@@ -4594,7 +4586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>154</v>
       </c>
@@ -4624,7 +4616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>156</v>
       </c>
@@ -4648,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -4672,7 +4664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>158</v>
       </c>
@@ -4696,7 +4688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>159</v>
       </c>
@@ -4720,7 +4712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>160</v>
       </c>
@@ -4744,7 +4736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>161</v>
       </c>
@@ -4768,7 +4760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>162</v>
       </c>
@@ -4792,7 +4784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>163</v>
       </c>
@@ -4816,7 +4808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>164</v>
       </c>
@@ -4840,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>165</v>
       </c>
@@ -4867,7 +4859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>166</v>
       </c>
@@ -4894,7 +4886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>167</v>
       </c>
@@ -4918,7 +4910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>168</v>
       </c>
@@ -4942,7 +4934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>169</v>
       </c>
@@ -4966,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>170</v>
       </c>
@@ -4996,7 +4988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>173</v>
       </c>
@@ -5026,7 +5018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>176</v>
       </c>
@@ -5050,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>177</v>
       </c>
@@ -5074,7 +5066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>178</v>
       </c>
@@ -5098,7 +5090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>179</v>
       </c>
@@ -5122,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>180</v>
       </c>
@@ -5146,7 +5138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>181</v>
       </c>
@@ -5170,7 +5162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>182</v>
       </c>
@@ -5194,7 +5186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>183</v>
       </c>
@@ -5218,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>184</v>
       </c>
@@ -5242,7 +5234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>185</v>
       </c>
@@ -5266,7 +5258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>186</v>
       </c>
@@ -5290,7 +5282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>187</v>
       </c>
@@ -5314,7 +5306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>188</v>
       </c>
@@ -5338,7 +5330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>189</v>
       </c>
@@ -5362,7 +5354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>190</v>
       </c>
@@ -5395,7 +5387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>194</v>
       </c>
@@ -5419,7 +5411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>195</v>
       </c>
@@ -5443,7 +5435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>196</v>
       </c>
@@ -5467,7 +5459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>197</v>
       </c>
@@ -5491,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>198</v>
       </c>
@@ -5521,7 +5513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>201</v>
       </c>
@@ -5545,7 +5537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>202</v>
       </c>
@@ -5569,7 +5561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>203</v>
       </c>
@@ -5593,7 +5585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>204</v>
       </c>
@@ -5617,7 +5609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>205</v>
       </c>
@@ -5641,7 +5633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>206</v>
       </c>
@@ -5665,7 +5657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>207</v>
       </c>
@@ -5689,7 +5681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>208</v>
       </c>
@@ -5713,7 +5705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>209</v>
       </c>
@@ -5737,7 +5729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>210</v>
       </c>
@@ -5764,7 +5756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>212</v>
       </c>
@@ -5797,7 +5789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>215</v>
       </c>
@@ -5821,7 +5813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>216</v>
       </c>
@@ -5845,7 +5837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>217</v>
       </c>
@@ -5878,7 +5870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>219</v>
       </c>
@@ -5902,7 +5894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>220</v>
       </c>
@@ -5935,7 +5927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>224</v>
       </c>
@@ -5959,7 +5951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>225</v>
       </c>
@@ -5989,7 +5981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>227</v>
       </c>
@@ -6013,7 +6005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>228</v>
       </c>
@@ -6037,7 +6029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>229</v>
       </c>
@@ -6061,7 +6053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>230</v>
       </c>
@@ -6085,7 +6077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>231</v>
       </c>
@@ -6109,7 +6101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>232</v>
       </c>
@@ -6142,7 +6134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>236</v>
       </c>
@@ -6172,7 +6164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>238</v>
       </c>
@@ -6208,7 +6200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>243</v>
       </c>
@@ -6232,7 +6224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>244</v>
       </c>
@@ -6256,7 +6248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>245</v>
       </c>
@@ -6289,7 +6281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>248</v>
       </c>
@@ -6325,7 +6317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>250</v>
       </c>
@@ -6352,7 +6344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>252</v>
       </c>
@@ -6379,7 +6371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>253</v>
       </c>
@@ -6409,7 +6401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>255</v>
       </c>
@@ -6436,7 +6428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>257</v>
       </c>
@@ -6466,7 +6458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>260</v>
       </c>
@@ -6490,7 +6482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>261</v>
       </c>
@@ -6514,7 +6506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>262</v>
       </c>
@@ -6538,7 +6530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>263</v>
       </c>
@@ -6562,7 +6554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>264</v>
       </c>
@@ -6586,7 +6578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>265</v>
       </c>
@@ -6616,7 +6608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>266</v>
       </c>
@@ -6640,7 +6632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>267</v>
       </c>
@@ -6664,7 +6656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>268</v>
       </c>
@@ -6688,7 +6680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>269</v>
       </c>
@@ -6712,7 +6704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>270</v>
       </c>
@@ -6736,7 +6728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>271</v>
       </c>
@@ -6760,7 +6752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>272</v>
       </c>
@@ -6790,7 +6782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>274</v>
       </c>
@@ -6820,7 +6812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>275</v>
       </c>
@@ -6844,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>276</v>
       </c>
@@ -6877,7 +6869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>279</v>
       </c>
@@ -6901,7 +6893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>280</v>
       </c>
@@ -6934,7 +6926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>284</v>
       </c>
@@ -6958,7 +6950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>285</v>
       </c>
@@ -6982,7 +6974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>286</v>
       </c>
@@ -7015,7 +7007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>289</v>
       </c>
@@ -7039,7 +7031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>290</v>
       </c>
@@ -7063,7 +7055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>291</v>
       </c>
@@ -7087,7 +7079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>292</v>
       </c>
@@ -7111,7 +7103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>293</v>
       </c>
@@ -7135,7 +7127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>294</v>
       </c>
@@ -7168,7 +7160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>296</v>
       </c>
@@ -7192,7 +7184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>297</v>
       </c>
@@ -7216,7 +7208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>298</v>
       </c>
@@ -7240,7 +7232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>299</v>
       </c>
@@ -7264,7 +7256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>300</v>
       </c>
@@ -7288,7 +7280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>301</v>
       </c>
@@ -7312,7 +7304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>302</v>
       </c>
@@ -7336,7 +7328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>303</v>
       </c>
@@ -7360,7 +7352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>304</v>
       </c>
@@ -7384,7 +7376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>305</v>
       </c>
@@ -7408,7 +7400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>306</v>
       </c>
@@ -7432,7 +7424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>307</v>
       </c>
@@ -7456,7 +7448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>308</v>
       </c>
@@ -7480,7 +7472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>309</v>
       </c>
@@ -7504,7 +7496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>310</v>
       </c>
@@ -7528,7 +7520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>311</v>
       </c>
@@ -7552,7 +7544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>312</v>
       </c>
@@ -7576,7 +7568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>313</v>
       </c>
@@ -7600,7 +7592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>314</v>
       </c>
@@ -7624,7 +7616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>315</v>
       </c>
@@ -7648,7 +7640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>316</v>
       </c>
@@ -7672,7 +7664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>317</v>
       </c>
@@ -7696,7 +7688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>318</v>
       </c>
@@ -7720,7 +7712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>319</v>
       </c>
@@ -7744,7 +7736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>320</v>
       </c>
@@ -7768,7 +7760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>321</v>
       </c>
@@ -7792,7 +7784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>322</v>
       </c>
@@ -7816,7 +7808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>323</v>
       </c>
@@ -7840,7 +7832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>324</v>
       </c>
@@ -7864,7 +7856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>325</v>
       </c>
@@ -7888,7 +7880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>326</v>
       </c>
@@ -7912,7 +7904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>327</v>
       </c>
@@ -7936,7 +7928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>328</v>
       </c>
@@ -7960,7 +7952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>329</v>
       </c>
@@ -7984,7 +7976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>330</v>
       </c>
@@ -8008,7 +8000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>331</v>
       </c>
@@ -8032,7 +8024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>332</v>
       </c>
@@ -8056,7 +8048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>333</v>
       </c>
@@ -8080,7 +8072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>334</v>
       </c>
@@ -8104,7 +8096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>335</v>
       </c>
@@ -8128,7 +8120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>336</v>
       </c>
@@ -8152,7 +8144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>337</v>
       </c>
@@ -8176,7 +8168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>338</v>
       </c>
@@ -8200,7 +8192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>339</v>
       </c>
@@ -8224,7 +8216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>340</v>
       </c>
@@ -8248,7 +8240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>341</v>
       </c>
@@ -8272,7 +8264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>342</v>
       </c>
@@ -8296,7 +8288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>343</v>
       </c>
@@ -8320,7 +8312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>344</v>
       </c>
@@ -8344,7 +8336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>345</v>
       </c>
@@ -8368,7 +8360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>346</v>
       </c>
@@ -8392,7 +8384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>347</v>
       </c>
@@ -8416,7 +8408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>348</v>
       </c>
@@ -8440,7 +8432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>349</v>
       </c>
@@ -8464,7 +8456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>350</v>
       </c>
@@ -8488,7 +8480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
         <v>351</v>
       </c>
@@ -8512,7 +8504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>352</v>
       </c>
@@ -8536,7 +8528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>353</v>
       </c>
@@ -8560,7 +8552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>354</v>
       </c>
@@ -8584,7 +8576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>355</v>
       </c>
@@ -8608,7 +8600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>356</v>
       </c>
@@ -8632,7 +8624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>357</v>
       </c>
@@ -8656,7 +8648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>358</v>
       </c>
@@ -8680,7 +8672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>359</v>
       </c>
@@ -8704,7 +8696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
         <v>360</v>
       </c>
@@ -8728,7 +8720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>361</v>
       </c>
@@ -8752,7 +8744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>362</v>
       </c>
@@ -8776,7 +8768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>363</v>
       </c>
@@ -8800,7 +8792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>364</v>
       </c>
@@ -8824,7 +8816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>365</v>
       </c>
@@ -8848,7 +8840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>366</v>
       </c>
@@ -8872,7 +8864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>367</v>
       </c>
@@ -8896,7 +8888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>368</v>
       </c>
@@ -8920,7 +8912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>369</v>
       </c>
@@ -8944,7 +8936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>370</v>
       </c>
@@ -8974,7 +8966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>371</v>
       </c>
@@ -8998,7 +8990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>372</v>
       </c>
@@ -9022,7 +9014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>373</v>
       </c>
@@ -9052,7 +9044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>375</v>
       </c>
@@ -9088,7 +9080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>380</v>
       </c>
@@ -9112,7 +9104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>381</v>
       </c>
@@ -9136,7 +9128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>382</v>
       </c>
@@ -9166,7 +9158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>383</v>
       </c>
@@ -9199,7 +9191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>386</v>
       </c>
@@ -9226,7 +9218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>388</v>
       </c>
@@ -9259,7 +9251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>392</v>
       </c>
@@ -9283,7 +9275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>393</v>
       </c>
@@ -9316,7 +9308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>397</v>
       </c>
@@ -9352,7 +9344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>402</v>
       </c>
@@ -9382,7 +9374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>404</v>
       </c>
@@ -9415,7 +9407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>406</v>
       </c>
@@ -9439,7 +9431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>407</v>
       </c>
@@ -9472,7 +9464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>410</v>
       </c>
@@ -9502,7 +9494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>412</v>
       </c>
@@ -9532,7 +9524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>414</v>
       </c>
@@ -9562,7 +9554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>415</v>
       </c>
@@ -9595,7 +9587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>418</v>
       </c>
@@ -9628,7 +9620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>422</v>
       </c>
@@ -9658,7 +9650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>423</v>
       </c>
@@ -9685,7 +9677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>425</v>
       </c>
@@ -9709,7 +9701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>426</v>
       </c>
@@ -9745,7 +9737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>430</v>
       </c>
@@ -9769,7 +9761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>431</v>
       </c>
@@ -9793,7 +9785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>432</v>
       </c>
@@ -9817,7 +9809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>433</v>
       </c>
@@ -9847,7 +9839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>435</v>
       </c>
@@ -9871,7 +9863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>436</v>
       </c>
@@ -9895,7 +9887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>437</v>
       </c>
@@ -9919,7 +9911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>438</v>
       </c>
@@ -9943,7 +9935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>439</v>
       </c>
@@ -9967,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>440</v>
       </c>
@@ -9991,7 +9983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>441</v>
       </c>
@@ -10015,7 +10007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>442</v>
       </c>
@@ -10039,7 +10031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>443</v>
       </c>
@@ -10063,7 +10055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>444</v>
       </c>
@@ -10087,7 +10079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>445</v>
       </c>
@@ -10123,7 +10115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>449</v>
       </c>
@@ -10157,27 +10149,27 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:B266 C3:D308 E1:E290 E292:E308 M1 M3:M266 F1:L308 D1:D2">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10208,17 +10200,17 @@
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.3046875" customWidth="1"/>
+    <col min="2" max="3" width="10.765625" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="11.53515625" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>560</v>
       </c>
@@ -10231,42 +10223,42 @@
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10301,7 +10293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>453</v>
       </c>
@@ -10325,7 +10317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>454</v>
       </c>
@@ -10353,7 +10345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>457</v>
       </c>
@@ -10377,7 +10369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>458</v>
       </c>
@@ -10401,7 +10393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>459</v>
       </c>
@@ -10425,7 +10417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>460</v>
       </c>
@@ -10449,7 +10441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>461</v>
       </c>
@@ -10473,7 +10465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>462</v>
       </c>
@@ -10497,7 +10489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>463</v>
       </c>
@@ -10521,7 +10513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>464</v>
       </c>
@@ -10549,7 +10541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>467</v>
       </c>
@@ -10579,7 +10571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>470</v>
       </c>
@@ -10603,7 +10595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>471</v>
       </c>
@@ -10627,7 +10619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>472</v>
       </c>
@@ -10651,7 +10643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>473</v>
       </c>
@@ -10675,7 +10667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>474</v>
       </c>
@@ -10699,7 +10691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>475</v>
       </c>
@@ -10723,7 +10715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>476</v>
       </c>
@@ -10751,7 +10743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>479</v>
       </c>
@@ -10775,7 +10767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>480</v>
       </c>
@@ -10803,7 +10795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>483</v>
       </c>
@@ -10829,7 +10821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>485</v>
       </c>
@@ -10857,7 +10849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>487</v>
       </c>
@@ -10887,7 +10879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>491</v>
       </c>
@@ -10911,7 +10903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>492</v>
       </c>
@@ -10935,7 +10927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>493</v>
       </c>
@@ -10965,7 +10957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>497</v>
       </c>
@@ -10989,7 +10981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>498</v>
       </c>
@@ -11013,7 +11005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>499</v>
       </c>
@@ -11041,7 +11033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>502</v>
       </c>
@@ -11069,7 +11061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>505</v>
       </c>
@@ -11093,7 +11085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>506</v>
       </c>
@@ -11121,7 +11113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>508</v>
       </c>
@@ -11145,7 +11137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>509</v>
       </c>
@@ -11175,7 +11167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>513</v>
       </c>
@@ -11201,7 +11193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>515</v>
       </c>
@@ -11222,7 +11214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>516</v>
       </c>
@@ -11243,7 +11235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>517</v>
       </c>
@@ -11264,7 +11256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>518</v>
       </c>
@@ -11285,7 +11277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>519</v>
       </c>
@@ -11306,7 +11298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>520</v>
       </c>
@@ -11327,7 +11319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>521</v>
       </c>
@@ -11348,7 +11340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>522</v>
       </c>
@@ -11369,7 +11361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>523</v>
       </c>
@@ -11390,7 +11382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>524</v>
       </c>
@@ -11411,7 +11403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>525</v>
       </c>
@@ -11432,7 +11424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>526</v>
       </c>
@@ -11453,7 +11445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>527</v>
       </c>
@@ -11474,7 +11466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>528</v>
       </c>
@@ -11495,7 +11487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>529</v>
       </c>
@@ -11516,7 +11508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>530</v>
       </c>
@@ -11537,7 +11529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>531</v>
       </c>
@@ -11558,7 +11550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>532</v>
       </c>
@@ -11579,7 +11571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>533</v>
       </c>
@@ -11600,7 +11592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>534</v>
       </c>
@@ -11621,7 +11613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>535</v>
       </c>
@@ -11642,7 +11634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>536</v>
       </c>
@@ -11663,7 +11655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>537</v>
       </c>
@@ -11684,7 +11676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>538</v>
       </c>
@@ -11705,7 +11697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>539</v>
       </c>
@@ -11726,7 +11718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>540</v>
       </c>
@@ -11747,7 +11739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>541</v>
       </c>
@@ -11768,7 +11760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>542</v>
       </c>
@@ -11789,7 +11781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>543</v>
       </c>
@@ -11810,7 +11802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>544</v>
       </c>
@@ -11831,7 +11823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>545</v>
       </c>
@@ -11852,7 +11844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>546</v>
       </c>
@@ -11873,7 +11865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>547</v>
       </c>
@@ -11894,7 +11886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>548</v>
       </c>
@@ -11915,7 +11907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>549</v>
       </c>
@@ -11936,7 +11928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>550</v>
       </c>
@@ -11957,7 +11949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>551</v>
       </c>
@@ -11978,7 +11970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>552</v>
       </c>
@@ -11999,7 +11991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>553</v>
       </c>
@@ -12020,7 +12012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>554</v>
       </c>
@@ -12041,7 +12033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>555</v>
       </c>
@@ -12062,7 +12054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>556</v>
       </c>
@@ -12083,7 +12075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>557</v>
       </c>
@@ -12104,7 +12096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>558</v>
       </c>
@@ -12134,27 +12126,27 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:K1 A3:K82 D2:J2">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataSetExplorerTests/DataFactories/TestData/BurningKnight3.xlsx
+++ b/DataSetExplorerTests/DataFactories/TestData/BurningKnight3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ccadet\platform\DataSetExplorerTests\DataFactories\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546589D8-385F-4821-9B1D-453746D9BA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15B7186-15B9-4431-BBA3-930252E3C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Long Method" sheetId="1" r:id="rId1"/>
-    <sheet name="Large Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Long_Method" sheetId="1" r:id="rId1"/>
+    <sheet name="Large_Class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1715,10 +1715,10 @@
     <t>Burning Knight</t>
   </si>
   <si>
-    <t>Large Class</t>
-  </si>
-  <si>
-    <t>Long Method</t>
+    <t>Large_Class</t>
+  </si>
+  <si>
+    <t>Long_Method</t>
   </si>
 </sst>
 </file>
@@ -2160,23 +2160,23 @@
   </sheetPr>
   <dimension ref="A1:M308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.69140625" customWidth="1"/>
-    <col min="2" max="3" width="10.765625" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
-    <col min="10" max="10" width="11.53515625" customWidth="1"/>
-    <col min="12" max="12" width="11.53515625" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>560</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>563</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>52</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>68</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>76</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>78</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>79</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>81</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>82</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>83</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>84</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>88</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>91</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>96</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>101</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>102</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>103</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>106</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>108</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>111</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>115</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>120</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>121</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>122</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>123</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>124</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>125</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>129</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>130</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>133</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>134</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>135</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>136</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>137</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>138</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>139</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>140</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>145</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>148</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>149</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>151</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>152</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>153</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>154</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>156</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>158</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>159</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>160</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>161</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>162</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>163</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>164</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>165</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>166</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>167</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>168</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>169</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>170</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>173</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>176</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>177</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>178</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>179</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>180</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>181</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>182</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>183</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>184</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>185</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>186</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>187</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>188</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>189</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>190</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>194</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>195</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>196</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>197</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>198</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>201</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>202</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>203</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>204</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>205</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>206</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>207</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>208</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>209</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>210</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>212</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>215</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>216</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>217</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>219</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>220</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>224</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>225</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>227</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>228</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>229</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>230</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>231</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>232</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>236</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>238</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>243</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>244</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>245</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>248</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>250</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>252</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>253</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>255</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>257</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>260</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>261</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>262</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>263</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>264</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>265</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>266</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>267</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>268</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>269</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>270</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>271</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>272</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>274</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>275</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>276</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>279</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>280</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>284</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>285</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>286</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>289</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>290</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>291</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>292</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>293</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>294</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>296</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>297</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>298</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>299</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>300</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>301</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>302</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>303</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>304</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>305</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>306</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>307</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>308</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>309</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>310</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>311</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>312</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>313</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>314</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>315</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>316</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>317</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>318</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>319</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>320</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>321</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>322</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>323</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>324</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>325</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
         <v>326</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>327</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>328</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>329</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>330</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>331</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>332</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>333</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>334</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>335</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>336</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>337</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>338</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>339</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
         <v>340</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
         <v>341</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
         <v>342</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
         <v>343</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>344</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>345</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>346</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>347</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>348</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>349</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>350</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>351</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>352</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>353</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>354</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>355</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>356</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>357</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>358</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>359</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
         <v>360</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>361</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>362</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>363</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>364</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>365</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>366</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
         <v>367</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>368</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>369</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>370</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>371</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>372</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>373</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>375</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>380</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>381</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>382</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>383</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>386</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>388</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>392</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>393</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>397</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>402</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>404</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>406</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>407</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>410</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>412</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>414</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>415</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>418</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>422</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>423</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>425</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>426</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>430</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>431</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>432</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>433</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>435</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>436</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>437</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>438</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>439</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>440</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>441</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>442</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>443</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>444</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>445</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>449</v>
       </c>
@@ -10181,7 +10181,7 @@
       <formula1>"No,Yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7F36D5E4-EC3C-4518-ABCD-D6EE26778EC7}">
-      <formula1>"Large Class, Long Method"</formula1>
+      <formula1>"Large_Class, Long_Method"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10195,22 +10195,22 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.3046875" customWidth="1"/>
-    <col min="2" max="3" width="10.765625" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" customWidth="1"/>
-    <col min="6" max="6" width="11.53515625" customWidth="1"/>
-    <col min="8" max="8" width="11.53515625" customWidth="1"/>
-    <col min="10" max="10" width="11.53515625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>560</v>
       </c>
@@ -10231,7 +10231,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>563</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>453</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>454</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>457</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>458</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>459</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>460</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>461</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>462</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>463</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>464</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>467</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>470</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>471</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>472</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>473</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>474</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>475</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>476</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>479</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>480</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>483</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>485</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>487</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>491</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>492</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>493</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>497</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>498</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>499</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>502</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>505</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>506</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>508</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>509</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>513</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>515</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>516</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>517</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>518</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>519</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>520</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>521</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>522</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>523</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>524</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>525</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>526</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>527</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>528</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>529</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>530</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>531</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>532</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>533</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>534</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>535</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>536</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>537</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>538</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>539</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>540</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>541</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>542</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>543</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>544</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>545</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>546</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>547</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>548</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>549</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>550</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>551</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>552</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>553</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>554</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>555</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>556</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>557</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>558</v>
       </c>
@@ -12158,7 +12158,7 @@
       <formula1>"No,Yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{09E6D4CC-0A96-4BB9-9F3B-5796EF64454F}">
-      <formula1>"Large Class, Long Method"</formula1>
+      <formula1>"Large_Class, Long_Method"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
